--- a/March_Madness2021.xlsx
+++ b/March_Madness2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simbo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simbo/Desktop/MinneAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991E25D4-1746-544B-B466-2EE0F810780B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE825ED-BE94-7F4C-9433-D0F724FEE504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
+    <workbookView xWindow="-33680" yWindow="-6680" windowWidth="28800" windowHeight="21120" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamStats" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>Houston</t>
   </si>
   <si>
-    <t>Oklahoma St.</t>
-  </si>
-  <si>
     <t>Clemson</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>St. Bona.</t>
+  </si>
+  <si>
+    <t>Okla. St.</t>
   </si>
 </sst>
 </file>
@@ -658,21 +658,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986C8978-FB06-1D45-95CB-A5CB586D8396}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -891,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -933,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,7 +1043,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1255,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1283,7 +1281,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,7 +1365,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1395,7 +1393,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1409,7 +1407,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,7 +1449,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1463,7 @@
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,7 +1477,7 @@
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,7 +1491,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,7 +1533,7 @@
         <v>22</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1549,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1563,7 +1561,7 @@
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1577,7 +1575,7 @@
         <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1591,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1605,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1619,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1633,7 +1631,7 @@
         <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1649,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E33"/>
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1663,22 +1661,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2234,9 +2232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B028866C-56D3-0F4B-A724-FF88FABD1313}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2251,22 +2247,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2587,9 +2583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A7206-4843-494E-A869-36713244513D}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2604,22 +2598,22 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2788,9 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96198FA0-4D79-A544-A80C-495386FB2753}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2803,22 +2795,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2906,9 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBF7375-38E9-864A-AF6C-31CB82AF7814}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2920,22 +2910,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2979,9 +2969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D843C2-1F12-C544-9CAC-DF8D94BC5955}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2993,22 +2981,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/March_Madness2021.xlsx
+++ b/March_Madness2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simbo/Desktop/MinneAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC17B8FE-6347-0040-BE70-718913C42428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BB5C05-82EC-1E4F-B6A1-6411706E14A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-6680" windowWidth="38400" windowHeight="21600" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
   </bookViews>
@@ -16,12 +16,13 @@
     <sheet name="TeamIndex" sheetId="12" r:id="rId1"/>
     <sheet name="TeamStats" sheetId="1" r:id="rId2"/>
     <sheet name="KenPom" sheetId="11" r:id="rId3"/>
-    <sheet name="FirstRound" sheetId="2" r:id="rId4"/>
-    <sheet name="SecondRound" sheetId="4" r:id="rId5"/>
-    <sheet name="Sweet16" sheetId="5" r:id="rId6"/>
-    <sheet name="Elite8" sheetId="7" r:id="rId7"/>
-    <sheet name="FinalFour" sheetId="8" r:id="rId8"/>
-    <sheet name="Championship" sheetId="9" r:id="rId9"/>
+    <sheet name="PreviousGames" sheetId="13" r:id="rId4"/>
+    <sheet name="FirstRound" sheetId="2" r:id="rId5"/>
+    <sheet name="SecondRound" sheetId="4" r:id="rId6"/>
+    <sheet name="Sweet16" sheetId="5" r:id="rId7"/>
+    <sheet name="Elite8" sheetId="7" r:id="rId8"/>
+    <sheet name="FinalFour" sheetId="8" r:id="rId9"/>
+    <sheet name="Championship" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TeamStats!$A$1:$C$69</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="171">
   <si>
     <t>Seed</t>
   </si>
@@ -496,6 +497,69 @@
   <si>
     <t>Non.Conf.AdjEM.SofS.Rank</t>
   </si>
+  <si>
+    <t>San Diego St.</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Oklahoma St.</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Mount St. Mary's</t>
+  </si>
+  <si>
+    <t>Southern California</t>
+  </si>
+  <si>
+    <t>UNC Greensboro</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Cleveland St.</t>
+  </si>
+  <si>
+    <t>Eastern Wash.</t>
+  </si>
+  <si>
+    <t>Abilene Christian</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>Loyola Chicago</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>St. Bonaventure</t>
+  </si>
+  <si>
+    <t>Team1</t>
+  </si>
+  <si>
+    <t>Team2</t>
+  </si>
+  <si>
+    <t>Score1</t>
+  </si>
+  <si>
+    <t>Score2</t>
+  </si>
 </sst>
 </file>
 
@@ -868,9 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F220B1-F692-9F45-B093-D2157E7377AC}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1428,6 +1490,58 @@
       </c>
       <c r="B69" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D843C2-1F12-C544-9CAC-DF8D94BC5955}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2">
+        <f>FinalFour!E2</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>FinalFour!E3</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10672,11 +10786,6147 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7CE048-BDFC-1747-9077-8EAA8AC081E8}">
+  <dimension ref="A1:G266"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <v>77</v>
+      </c>
+      <c r="G2">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>91</v>
+      </c>
+      <c r="G3">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>69</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7">
+        <v>66</v>
+      </c>
+      <c r="F7">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>69</v>
+      </c>
+      <c r="G10">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+      <c r="G12">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>81</v>
+      </c>
+      <c r="F13">
+        <v>73</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>79</v>
+      </c>
+      <c r="G14">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>53</v>
+      </c>
+      <c r="F15">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>87</v>
+      </c>
+      <c r="G17">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>67</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19">
+        <v>69</v>
+      </c>
+      <c r="F19">
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>77</v>
+      </c>
+      <c r="G20">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <v>87</v>
+      </c>
+      <c r="G21">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>85</v>
+      </c>
+      <c r="G22">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>83</v>
+      </c>
+      <c r="F23">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <v>82</v>
+      </c>
+      <c r="G24">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25">
+        <v>58</v>
+      </c>
+      <c r="F25">
+        <v>61</v>
+      </c>
+      <c r="G25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>67</v>
+      </c>
+      <c r="F27">
+        <v>64</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>64</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>72</v>
+      </c>
+      <c r="F29">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>46</v>
+      </c>
+      <c r="F30">
+        <v>101</v>
+      </c>
+      <c r="G30">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>80</v>
+      </c>
+      <c r="F31">
+        <v>71</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>52</v>
+      </c>
+      <c r="F32">
+        <v>69</v>
+      </c>
+      <c r="G32">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>72</v>
+      </c>
+      <c r="F33">
+        <v>73</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>47</v>
+      </c>
+      <c r="F34">
+        <v>56</v>
+      </c>
+      <c r="G34">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <v>93</v>
+      </c>
+      <c r="G35">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36">
+        <v>78</v>
+      </c>
+      <c r="F36">
+        <v>83</v>
+      </c>
+      <c r="G36">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>51</v>
+      </c>
+      <c r="F38">
+        <v>67</v>
+      </c>
+      <c r="G38">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39">
+        <v>51</v>
+      </c>
+      <c r="G39">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>62</v>
+      </c>
+      <c r="G41">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>76</v>
+      </c>
+      <c r="F42">
+        <v>63</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43">
+        <v>71</v>
+      </c>
+      <c r="F43">
+        <v>83</v>
+      </c>
+      <c r="G43">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>67</v>
+      </c>
+      <c r="F44">
+        <v>64</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45">
+        <v>56</v>
+      </c>
+      <c r="F45">
+        <v>64</v>
+      </c>
+      <c r="G45">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>78</v>
+      </c>
+      <c r="F46">
+        <v>81</v>
+      </c>
+      <c r="G46">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47">
+        <v>47</v>
+      </c>
+      <c r="F47">
+        <v>64</v>
+      </c>
+      <c r="G47">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>67</v>
+      </c>
+      <c r="G48">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49">
+        <v>74</v>
+      </c>
+      <c r="F49">
+        <v>60</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>66</v>
+      </c>
+      <c r="G50">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51">
+        <v>38</v>
+      </c>
+      <c r="F51">
+        <v>79</v>
+      </c>
+      <c r="G51">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>63</v>
+      </c>
+      <c r="F52">
+        <v>77</v>
+      </c>
+      <c r="G52">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>61</v>
+      </c>
+      <c r="F53">
+        <v>74</v>
+      </c>
+      <c r="G53">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54">
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <v>67</v>
+      </c>
+      <c r="G54">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>65</v>
+      </c>
+      <c r="F55">
+        <v>79</v>
+      </c>
+      <c r="G55">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56">
+        <v>58</v>
+      </c>
+      <c r="F56">
+        <v>57</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57">
+        <v>72</v>
+      </c>
+      <c r="F57">
+        <v>62</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>99</v>
+      </c>
+      <c r="F58">
+        <v>88</v>
+      </c>
+      <c r="G58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>70</v>
+      </c>
+      <c r="F59">
+        <v>77</v>
+      </c>
+      <c r="G59">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60">
+        <v>76</v>
+      </c>
+      <c r="F60">
+        <v>74</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61">
+        <v>88</v>
+      </c>
+      <c r="F61">
+        <v>91</v>
+      </c>
+      <c r="G61">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62">
+        <v>37</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62">
+        <v>74</v>
+      </c>
+      <c r="F62">
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63">
+        <v>76</v>
+      </c>
+      <c r="F63">
+        <v>87</v>
+      </c>
+      <c r="G63">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64">
+        <v>51</v>
+      </c>
+      <c r="F64">
+        <v>66</v>
+      </c>
+      <c r="G64">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65">
+        <v>71</v>
+      </c>
+      <c r="F65">
+        <v>87</v>
+      </c>
+      <c r="G65">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66">
+        <v>72</v>
+      </c>
+      <c r="F66">
+        <v>85</v>
+      </c>
+      <c r="G66">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>69</v>
+      </c>
+      <c r="F67">
+        <v>67</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>65</v>
+      </c>
+      <c r="F68">
+        <v>79</v>
+      </c>
+      <c r="G68">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>55</v>
+      </c>
+      <c r="F69">
+        <v>70</v>
+      </c>
+      <c r="G69">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>74</v>
+      </c>
+      <c r="F70">
+        <v>64</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71">
+        <v>68</v>
+      </c>
+      <c r="F71">
+        <v>80</v>
+      </c>
+      <c r="G71">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72">
+        <v>85</v>
+      </c>
+      <c r="F72">
+        <v>76</v>
+      </c>
+      <c r="G72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73">
+        <v>70</v>
+      </c>
+      <c r="F73">
+        <v>73</v>
+      </c>
+      <c r="G73">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>75</v>
+      </c>
+      <c r="F74">
+        <v>98</v>
+      </c>
+      <c r="G74">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75">
+        <v>70</v>
+      </c>
+      <c r="F75">
+        <v>64</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76">
+        <v>76</v>
+      </c>
+      <c r="F76">
+        <v>81</v>
+      </c>
+      <c r="G76">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77">
+        <v>59</v>
+      </c>
+      <c r="D77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77">
+        <v>67</v>
+      </c>
+      <c r="F77">
+        <v>77</v>
+      </c>
+      <c r="G77">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78">
+        <v>61</v>
+      </c>
+      <c r="D78" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78">
+        <v>67</v>
+      </c>
+      <c r="F78">
+        <v>72</v>
+      </c>
+      <c r="G78">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>57</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>73</v>
+      </c>
+      <c r="F79">
+        <v>53</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80">
+        <v>44</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80">
+        <v>84</v>
+      </c>
+      <c r="F80">
+        <v>73</v>
+      </c>
+      <c r="G80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81">
+        <v>72</v>
+      </c>
+      <c r="F81">
+        <v>62</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+      <c r="F82">
+        <v>68</v>
+      </c>
+      <c r="G82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>84</v>
+      </c>
+      <c r="F83">
+        <v>59</v>
+      </c>
+      <c r="G83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84">
+        <v>79</v>
+      </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85">
+        <v>77</v>
+      </c>
+      <c r="F85">
+        <v>75</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86">
+        <v>24</v>
+      </c>
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86">
+        <v>82</v>
+      </c>
+      <c r="F86">
+        <v>77</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>55</v>
+      </c>
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>71</v>
+      </c>
+      <c r="F87">
+        <v>75</v>
+      </c>
+      <c r="G87">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88">
+        <v>58</v>
+      </c>
+      <c r="F88">
+        <v>66</v>
+      </c>
+      <c r="G88">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89">
+        <v>57</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89">
+        <v>71</v>
+      </c>
+      <c r="F89">
+        <v>63</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+      <c r="D90" t="s">
+        <v>164</v>
+      </c>
+      <c r="E90">
+        <v>49</v>
+      </c>
+      <c r="F90">
+        <v>57</v>
+      </c>
+      <c r="G90">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91">
+        <v>46</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91">
+        <v>62</v>
+      </c>
+      <c r="F91">
+        <v>65</v>
+      </c>
+      <c r="G91">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>55</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92">
+        <v>87</v>
+      </c>
+      <c r="F92">
+        <v>84</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93">
+        <v>71</v>
+      </c>
+      <c r="F93">
+        <v>86</v>
+      </c>
+      <c r="G93">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94">
+        <v>45</v>
+      </c>
+      <c r="D94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94">
+        <v>45</v>
+      </c>
+      <c r="F94">
+        <v>68</v>
+      </c>
+      <c r="G94">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>57</v>
+      </c>
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95">
+        <v>74</v>
+      </c>
+      <c r="F95">
+        <v>79</v>
+      </c>
+      <c r="G95">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>54</v>
+      </c>
+      <c r="D96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96">
+        <v>63</v>
+      </c>
+      <c r="F96">
+        <v>70</v>
+      </c>
+      <c r="G96">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97">
+        <v>61</v>
+      </c>
+      <c r="F97">
+        <v>76</v>
+      </c>
+      <c r="G97">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98">
+        <v>72</v>
+      </c>
+      <c r="F98">
+        <v>79</v>
+      </c>
+      <c r="G98">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>44</v>
+      </c>
+      <c r="D99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99">
+        <v>89</v>
+      </c>
+      <c r="F99">
+        <v>67</v>
+      </c>
+      <c r="G99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>40</v>
+      </c>
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>69</v>
+      </c>
+      <c r="F100">
+        <v>86</v>
+      </c>
+      <c r="G100">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101">
+        <v>45</v>
+      </c>
+      <c r="D101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101">
+        <v>55</v>
+      </c>
+      <c r="F101">
+        <v>54</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102">
+        <v>62</v>
+      </c>
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102">
+        <v>79</v>
+      </c>
+      <c r="F102">
+        <v>68</v>
+      </c>
+      <c r="G102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103">
+        <v>55</v>
+      </c>
+      <c r="D103" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103">
+        <v>72</v>
+      </c>
+      <c r="F103">
+        <v>70</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>59</v>
+      </c>
+      <c r="F104">
+        <v>63</v>
+      </c>
+      <c r="G104">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105">
+        <v>69</v>
+      </c>
+      <c r="F105">
+        <v>74</v>
+      </c>
+      <c r="G105">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>44</v>
+      </c>
+      <c r="B106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106">
+        <v>53</v>
+      </c>
+      <c r="D106" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106">
+        <v>66</v>
+      </c>
+      <c r="F106">
+        <v>63</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <v>35</v>
+      </c>
+      <c r="D107" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107">
+        <v>54</v>
+      </c>
+      <c r="F107">
+        <v>77</v>
+      </c>
+      <c r="G107">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108">
+        <v>70</v>
+      </c>
+      <c r="F108">
+        <v>75</v>
+      </c>
+      <c r="G108">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>63</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109">
+        <v>75</v>
+      </c>
+      <c r="F109">
+        <v>81</v>
+      </c>
+      <c r="G109">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110">
+        <v>42</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110">
+        <v>76</v>
+      </c>
+      <c r="F110">
+        <v>92</v>
+      </c>
+      <c r="G110">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111">
+        <v>79</v>
+      </c>
+      <c r="F111">
+        <v>77</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>58</v>
+      </c>
+      <c r="B112" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112">
+        <v>29</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112">
+        <v>45</v>
+      </c>
+      <c r="F112">
+        <v>57</v>
+      </c>
+      <c r="G112">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <v>62</v>
+      </c>
+      <c r="D113" t="s">
+        <v>52</v>
+      </c>
+      <c r="E113">
+        <v>60</v>
+      </c>
+      <c r="F113">
+        <v>54</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>26</v>
+      </c>
+      <c r="B114" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114">
+        <v>38</v>
+      </c>
+      <c r="D114" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114">
+        <v>75</v>
+      </c>
+      <c r="F114">
+        <v>82</v>
+      </c>
+      <c r="G114">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115">
+        <v>53</v>
+      </c>
+      <c r="D115" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115">
+        <v>87</v>
+      </c>
+      <c r="F115">
+        <v>81</v>
+      </c>
+      <c r="G115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>58</v>
+      </c>
+      <c r="B116" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116">
+        <v>59</v>
+      </c>
+      <c r="F116">
+        <v>64</v>
+      </c>
+      <c r="G116">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117">
+        <v>59</v>
+      </c>
+      <c r="F117">
+        <v>90</v>
+      </c>
+      <c r="G117">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118">
+        <v>68</v>
+      </c>
+      <c r="F118">
+        <v>60</v>
+      </c>
+      <c r="G118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>59</v>
+      </c>
+      <c r="D119" t="s">
+        <v>51</v>
+      </c>
+      <c r="E119">
+        <v>85</v>
+      </c>
+      <c r="F119">
+        <v>50</v>
+      </c>
+      <c r="G119">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>19</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120">
+        <v>69</v>
+      </c>
+      <c r="F120">
+        <v>77</v>
+      </c>
+      <c r="G120">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>22</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121">
+        <v>67</v>
+      </c>
+      <c r="F121">
+        <v>65</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>44</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122">
+        <v>35</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122">
+        <v>63</v>
+      </c>
+      <c r="F122">
+        <v>87</v>
+      </c>
+      <c r="G122">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123">
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>54</v>
+      </c>
+      <c r="E123">
+        <v>56</v>
+      </c>
+      <c r="F123">
+        <v>58</v>
+      </c>
+      <c r="G123">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>57</v>
+      </c>
+      <c r="B124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124">
+        <v>25</v>
+      </c>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124">
+        <v>49</v>
+      </c>
+      <c r="F124">
+        <v>75</v>
+      </c>
+      <c r="G124">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>36</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125">
+        <v>105</v>
+      </c>
+      <c r="F125">
+        <v>75</v>
+      </c>
+      <c r="G125">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>43</v>
+      </c>
+      <c r="D126" t="s">
+        <v>166</v>
+      </c>
+      <c r="E126">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>70</v>
+      </c>
+      <c r="G126">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>59</v>
+      </c>
+      <c r="B127" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127">
+        <v>61</v>
+      </c>
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127">
+        <v>65</v>
+      </c>
+      <c r="F127">
+        <v>83</v>
+      </c>
+      <c r="G127">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>35</v>
+      </c>
+      <c r="B128" t="s">
+        <v>37</v>
+      </c>
+      <c r="C128">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128">
+        <v>70</v>
+      </c>
+      <c r="F128">
+        <v>53</v>
+      </c>
+      <c r="G128">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129">
+        <v>66</v>
+      </c>
+      <c r="F129">
+        <v>74</v>
+      </c>
+      <c r="G129">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>28</v>
+      </c>
+      <c r="B130" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130">
+        <v>60</v>
+      </c>
+      <c r="F130">
+        <v>78</v>
+      </c>
+      <c r="G130">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>68</v>
+      </c>
+      <c r="F131">
+        <v>75</v>
+      </c>
+      <c r="G131">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>56</v>
+      </c>
+      <c r="D132" t="s">
+        <v>154</v>
+      </c>
+      <c r="E132">
+        <v>81</v>
+      </c>
+      <c r="F132">
+        <v>66</v>
+      </c>
+      <c r="G132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>59</v>
+      </c>
+      <c r="B133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133">
+        <v>61</v>
+      </c>
+      <c r="F133">
+        <v>80</v>
+      </c>
+      <c r="G133">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134">
+        <v>74</v>
+      </c>
+      <c r="F134">
+        <v>62</v>
+      </c>
+      <c r="G134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>61</v>
+      </c>
+      <c r="B135" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>62</v>
+      </c>
+      <c r="F135">
+        <v>64</v>
+      </c>
+      <c r="G135">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136">
+        <v>57</v>
+      </c>
+      <c r="D136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E136">
+        <v>73</v>
+      </c>
+      <c r="F136">
+        <v>64</v>
+      </c>
+      <c r="G136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>64</v>
+      </c>
+      <c r="B137" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137">
+        <v>75</v>
+      </c>
+      <c r="F137">
+        <v>64</v>
+      </c>
+      <c r="G137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>63</v>
+      </c>
+      <c r="B138" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138">
+        <v>58</v>
+      </c>
+      <c r="F138">
+        <v>81</v>
+      </c>
+      <c r="G138">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>24</v>
+      </c>
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139">
+        <v>55</v>
+      </c>
+      <c r="D139" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139">
+        <v>87</v>
+      </c>
+      <c r="F139">
+        <v>88</v>
+      </c>
+      <c r="G139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>37</v>
+      </c>
+      <c r="D140" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140">
+        <v>80</v>
+      </c>
+      <c r="F140">
+        <v>79</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>27</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>44</v>
+      </c>
+      <c r="D141" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141">
+        <v>61</v>
+      </c>
+      <c r="F141">
+        <v>55</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>64</v>
+      </c>
+      <c r="B142" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142">
+        <v>62</v>
+      </c>
+      <c r="F142">
+        <v>75</v>
+      </c>
+      <c r="G142">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>45</v>
+      </c>
+      <c r="B143" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143">
+        <v>62</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143">
+        <v>37</v>
+      </c>
+      <c r="F143">
+        <v>67</v>
+      </c>
+      <c r="G143">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>53</v>
+      </c>
+      <c r="D144" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144">
+        <v>75</v>
+      </c>
+      <c r="F144">
+        <v>80</v>
+      </c>
+      <c r="G144">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>36</v>
+      </c>
+      <c r="B145" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145">
+        <v>61</v>
+      </c>
+      <c r="F145">
+        <v>66</v>
+      </c>
+      <c r="G145">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146">
+        <v>55</v>
+      </c>
+      <c r="D146" t="s">
+        <v>151</v>
+      </c>
+      <c r="E146">
+        <v>85</v>
+      </c>
+      <c r="F146">
+        <v>80</v>
+      </c>
+      <c r="G146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>24</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147">
+        <v>42</v>
+      </c>
+      <c r="D147" t="s">
+        <v>40</v>
+      </c>
+      <c r="E147">
+        <v>76</v>
+      </c>
+      <c r="F147">
+        <v>71</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>38</v>
+      </c>
+      <c r="B148" t="s">
+        <v>39</v>
+      </c>
+      <c r="C148">
+        <v>61</v>
+      </c>
+      <c r="D148" t="s">
+        <v>165</v>
+      </c>
+      <c r="E148">
+        <v>65</v>
+      </c>
+      <c r="F148">
+        <v>76</v>
+      </c>
+      <c r="G148">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149">
+        <v>56</v>
+      </c>
+      <c r="D149" t="s">
+        <v>154</v>
+      </c>
+      <c r="E149">
+        <v>77</v>
+      </c>
+      <c r="F149">
+        <v>81</v>
+      </c>
+      <c r="G149">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150">
+        <v>51</v>
+      </c>
+      <c r="F150">
+        <v>65</v>
+      </c>
+      <c r="G150">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>57</v>
+      </c>
+      <c r="D151" t="s">
+        <v>58</v>
+      </c>
+      <c r="E151">
+        <v>61</v>
+      </c>
+      <c r="F151">
+        <v>80</v>
+      </c>
+      <c r="G151">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>64</v>
+      </c>
+      <c r="B152" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152">
+        <v>46</v>
+      </c>
+      <c r="D152" t="s">
+        <v>48</v>
+      </c>
+      <c r="E152">
+        <v>52</v>
+      </c>
+      <c r="F152">
+        <v>57</v>
+      </c>
+      <c r="G152">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>45</v>
+      </c>
+      <c r="B153" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153">
+        <v>62</v>
+      </c>
+      <c r="F153">
+        <v>79</v>
+      </c>
+      <c r="G153">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154">
+        <v>52</v>
+      </c>
+      <c r="F154">
+        <v>57</v>
+      </c>
+      <c r="G154">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>22</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155">
+        <v>44</v>
+      </c>
+      <c r="D155" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155">
+        <v>60</v>
+      </c>
+      <c r="F155">
+        <v>61</v>
+      </c>
+      <c r="G155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156">
+        <v>37</v>
+      </c>
+      <c r="D156" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156">
+        <v>83</v>
+      </c>
+      <c r="F156">
+        <v>69</v>
+      </c>
+      <c r="G156">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>45</v>
+      </c>
+      <c r="B157" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>78</v>
+      </c>
+      <c r="F157">
+        <v>84</v>
+      </c>
+      <c r="G157">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>26</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158">
+        <v>59</v>
+      </c>
+      <c r="D158" t="s">
+        <v>51</v>
+      </c>
+      <c r="E158">
+        <v>50</v>
+      </c>
+      <c r="F158">
+        <v>63</v>
+      </c>
+      <c r="G158">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>42</v>
+      </c>
+      <c r="B159" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159">
+        <v>36</v>
+      </c>
+      <c r="D159" t="s">
+        <v>43</v>
+      </c>
+      <c r="E159">
+        <v>60</v>
+      </c>
+      <c r="F159">
+        <v>78</v>
+      </c>
+      <c r="G159">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>47</v>
+      </c>
+      <c r="B160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160">
+        <v>86</v>
+      </c>
+      <c r="F160">
+        <v>79</v>
+      </c>
+      <c r="G160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>89</v>
+      </c>
+      <c r="F161">
+        <v>85</v>
+      </c>
+      <c r="G161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>36</v>
+      </c>
+      <c r="B162" t="s">
+        <v>43</v>
+      </c>
+      <c r="C162">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162">
+        <v>65</v>
+      </c>
+      <c r="F162">
+        <v>68</v>
+      </c>
+      <c r="G162">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>55</v>
+      </c>
+      <c r="D163" t="s">
+        <v>151</v>
+      </c>
+      <c r="E163">
+        <v>79</v>
+      </c>
+      <c r="F163">
+        <v>91</v>
+      </c>
+      <c r="G163">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>63</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164">
+        <v>59</v>
+      </c>
+      <c r="D164" t="s">
+        <v>51</v>
+      </c>
+      <c r="E164">
+        <v>61</v>
+      </c>
+      <c r="F164">
+        <v>78</v>
+      </c>
+      <c r="G164">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165">
+        <v>53</v>
+      </c>
+      <c r="D165" t="s">
+        <v>49</v>
+      </c>
+      <c r="E165">
+        <v>60</v>
+      </c>
+      <c r="F165">
+        <v>75</v>
+      </c>
+      <c r="G165">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>37</v>
+      </c>
+      <c r="B166" t="s">
+        <v>44</v>
+      </c>
+      <c r="C166">
+        <v>56</v>
+      </c>
+      <c r="D166" t="s">
+        <v>154</v>
+      </c>
+      <c r="E166">
+        <v>67</v>
+      </c>
+      <c r="F166">
+        <v>75</v>
+      </c>
+      <c r="G166">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>46</v>
+      </c>
+      <c r="B167" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>157</v>
+      </c>
+      <c r="E167">
+        <v>48</v>
+      </c>
+      <c r="F167">
+        <v>66</v>
+      </c>
+      <c r="G167">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>47</v>
+      </c>
+      <c r="B168" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168">
+        <v>74</v>
+      </c>
+      <c r="F168">
+        <v>84</v>
+      </c>
+      <c r="G168">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>64</v>
+      </c>
+      <c r="B169" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169">
+        <v>39</v>
+      </c>
+      <c r="D169" t="s">
+        <v>38</v>
+      </c>
+      <c r="E169">
+        <v>49</v>
+      </c>
+      <c r="F169">
+        <v>78</v>
+      </c>
+      <c r="G169">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170">
+        <v>44</v>
+      </c>
+      <c r="D170" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170">
+        <v>73</v>
+      </c>
+      <c r="F170">
+        <v>65</v>
+      </c>
+      <c r="G170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>56</v>
+      </c>
+      <c r="B171" t="s">
+        <v>154</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171">
+        <v>66</v>
+      </c>
+      <c r="F171">
+        <v>78</v>
+      </c>
+      <c r="G171">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>40</v>
+      </c>
+      <c r="D172" t="s">
+        <v>46</v>
+      </c>
+      <c r="E172">
+        <v>82</v>
+      </c>
+      <c r="F172">
+        <v>71</v>
+      </c>
+      <c r="G172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>55</v>
+      </c>
+      <c r="B173" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173">
+        <v>24</v>
+      </c>
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173">
+        <v>82</v>
+      </c>
+      <c r="F173">
+        <v>71</v>
+      </c>
+      <c r="G173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>47</v>
+      </c>
+      <c r="D174" t="s">
+        <v>45</v>
+      </c>
+      <c r="E174">
+        <v>63</v>
+      </c>
+      <c r="F174">
+        <v>48</v>
+      </c>
+      <c r="G174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175">
+        <v>61</v>
+      </c>
+      <c r="D175" t="s">
+        <v>165</v>
+      </c>
+      <c r="E175">
+        <v>57</v>
+      </c>
+      <c r="F175">
+        <v>49</v>
+      </c>
+      <c r="G175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>62</v>
+      </c>
+      <c r="B176" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176">
+        <v>66</v>
+      </c>
+      <c r="F176">
+        <v>79</v>
+      </c>
+      <c r="G176">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>43</v>
+      </c>
+      <c r="B177" t="s">
+        <v>166</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177">
+        <v>64</v>
+      </c>
+      <c r="F177">
+        <v>67</v>
+      </c>
+      <c r="G177">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>61</v>
+      </c>
+      <c r="B178" t="s">
+        <v>165</v>
+      </c>
+      <c r="C178">
+        <v>59</v>
+      </c>
+      <c r="D178" t="s">
+        <v>51</v>
+      </c>
+      <c r="E178">
+        <v>72</v>
+      </c>
+      <c r="F178">
+        <v>74</v>
+      </c>
+      <c r="G178">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>60</v>
+      </c>
+      <c r="B179" t="s">
+        <v>164</v>
+      </c>
+      <c r="C179">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179">
+        <v>81</v>
+      </c>
+      <c r="F179">
+        <v>54</v>
+      </c>
+      <c r="G179">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>55</v>
+      </c>
+      <c r="D180" t="s">
+        <v>151</v>
+      </c>
+      <c r="E180">
+        <v>91</v>
+      </c>
+      <c r="F180">
+        <v>90</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>57</v>
+      </c>
+      <c r="B181" t="s">
+        <v>58</v>
+      </c>
+      <c r="C181">
+        <v>42</v>
+      </c>
+      <c r="D181" t="s">
+        <v>40</v>
+      </c>
+      <c r="E181">
+        <v>65</v>
+      </c>
+      <c r="F181">
+        <v>78</v>
+      </c>
+      <c r="G181">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182">
+        <v>45</v>
+      </c>
+      <c r="D182" t="s">
+        <v>47</v>
+      </c>
+      <c r="E182">
+        <v>88</v>
+      </c>
+      <c r="F182">
+        <v>58</v>
+      </c>
+      <c r="G182">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183">
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183">
+        <v>86</v>
+      </c>
+      <c r="F183">
+        <v>81</v>
+      </c>
+      <c r="G183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>23</v>
+      </c>
+      <c r="B184" t="s">
+        <v>26</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184">
+        <v>70</v>
+      </c>
+      <c r="F184">
+        <v>86</v>
+      </c>
+      <c r="G184">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>26</v>
+      </c>
+      <c r="B185" t="s">
+        <v>159</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185">
+        <v>48</v>
+      </c>
+      <c r="F185">
+        <v>60</v>
+      </c>
+      <c r="G185">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>35</v>
+      </c>
+      <c r="B186" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186">
+        <v>27</v>
+      </c>
+      <c r="D186" t="s">
+        <v>25</v>
+      </c>
+      <c r="E186">
+        <v>67</v>
+      </c>
+      <c r="F186">
+        <v>59</v>
+      </c>
+      <c r="G186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>60</v>
+      </c>
+      <c r="B187" t="s">
+        <v>164</v>
+      </c>
+      <c r="C187">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187">
+        <v>50</v>
+      </c>
+      <c r="F187">
+        <v>51</v>
+      </c>
+      <c r="G187">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>38</v>
+      </c>
+      <c r="D188" t="s">
+        <v>39</v>
+      </c>
+      <c r="E188">
+        <v>60</v>
+      </c>
+      <c r="F188">
+        <v>81</v>
+      </c>
+      <c r="G188">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>25</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189">
+        <v>21</v>
+      </c>
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189">
+        <v>64</v>
+      </c>
+      <c r="F189">
+        <v>75</v>
+      </c>
+      <c r="G189">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>45</v>
+      </c>
+      <c r="B190" t="s">
+        <v>47</v>
+      </c>
+      <c r="C190">
+        <v>22</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190">
+        <v>65</v>
+      </c>
+      <c r="F190">
+        <v>75</v>
+      </c>
+      <c r="G190">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>54</v>
+      </c>
+      <c r="B191" t="s">
+        <v>50</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>63</v>
+      </c>
+      <c r="F191">
+        <v>68</v>
+      </c>
+      <c r="G191">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>27</v>
+      </c>
+      <c r="D192" t="s">
+        <v>25</v>
+      </c>
+      <c r="E192">
+        <v>77</v>
+      </c>
+      <c r="F192">
+        <v>62</v>
+      </c>
+      <c r="G192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>62</v>
+      </c>
+      <c r="B193" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193">
+        <v>35</v>
+      </c>
+      <c r="D193" t="s">
+        <v>37</v>
+      </c>
+      <c r="E193">
+        <v>64</v>
+      </c>
+      <c r="F193">
+        <v>71</v>
+      </c>
+      <c r="G193">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>39</v>
+      </c>
+      <c r="B194" t="s">
+        <v>38</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194">
+        <v>56</v>
+      </c>
+      <c r="F194">
+        <v>60</v>
+      </c>
+      <c r="G194">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>41</v>
+      </c>
+      <c r="B195" t="s">
+        <v>152</v>
+      </c>
+      <c r="C195">
+        <v>23</v>
+      </c>
+      <c r="D195" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195">
+        <v>60</v>
+      </c>
+      <c r="F195">
+        <v>68</v>
+      </c>
+      <c r="G195">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>24</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196">
+        <v>61</v>
+      </c>
+      <c r="F196">
+        <v>67</v>
+      </c>
+      <c r="G196">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>55</v>
+      </c>
+      <c r="B197" t="s">
+        <v>151</v>
+      </c>
+      <c r="C197">
+        <v>37</v>
+      </c>
+      <c r="D197" t="s">
+        <v>44</v>
+      </c>
+      <c r="E197">
+        <v>84</v>
+      </c>
+      <c r="F197">
+        <v>82</v>
+      </c>
+      <c r="G197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>39</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198">
+        <v>64</v>
+      </c>
+      <c r="D198" t="s">
+        <v>54</v>
+      </c>
+      <c r="E198">
+        <v>61</v>
+      </c>
+      <c r="F198">
+        <v>57</v>
+      </c>
+      <c r="G198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>35</v>
+      </c>
+      <c r="B199" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>36</v>
+      </c>
+      <c r="E199">
+        <v>92</v>
+      </c>
+      <c r="F199">
+        <v>87</v>
+      </c>
+      <c r="G199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>44</v>
+      </c>
+      <c r="B200" t="s">
+        <v>41</v>
+      </c>
+      <c r="C200">
+        <v>62</v>
+      </c>
+      <c r="D200" t="s">
+        <v>52</v>
+      </c>
+      <c r="E200">
+        <v>68</v>
+      </c>
+      <c r="F200">
+        <v>59</v>
+      </c>
+      <c r="G200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201">
+        <v>56</v>
+      </c>
+      <c r="D201" t="s">
+        <v>154</v>
+      </c>
+      <c r="E201">
+        <v>69</v>
+      </c>
+      <c r="F201">
+        <v>74</v>
+      </c>
+      <c r="G201">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>157</v>
+      </c>
+      <c r="E202">
+        <v>58</v>
+      </c>
+      <c r="F202">
+        <v>72</v>
+      </c>
+      <c r="G202">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>53</v>
+      </c>
+      <c r="B203" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203">
+        <v>45</v>
+      </c>
+      <c r="D203" t="s">
+        <v>47</v>
+      </c>
+      <c r="E203">
+        <v>72</v>
+      </c>
+      <c r="F203">
+        <v>81</v>
+      </c>
+      <c r="G203">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>61</v>
+      </c>
+      <c r="B204" t="s">
+        <v>165</v>
+      </c>
+      <c r="C204">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>155</v>
+      </c>
+      <c r="E204">
+        <v>69</v>
+      </c>
+      <c r="F204">
+        <v>53</v>
+      </c>
+      <c r="G204">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>41</v>
+      </c>
+      <c r="B205" t="s">
+        <v>152</v>
+      </c>
+      <c r="C205">
+        <v>47</v>
+      </c>
+      <c r="D205" t="s">
+        <v>45</v>
+      </c>
+      <c r="E205">
+        <v>70</v>
+      </c>
+      <c r="F205">
+        <v>57</v>
+      </c>
+      <c r="G205">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>3</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206">
+        <v>37</v>
+      </c>
+      <c r="D206" t="s">
+        <v>44</v>
+      </c>
+      <c r="E206">
+        <v>72</v>
+      </c>
+      <c r="F206">
+        <v>75</v>
+      </c>
+      <c r="G206">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>36</v>
+      </c>
+      <c r="B207" t="s">
+        <v>43</v>
+      </c>
+      <c r="C207">
+        <v>21</v>
+      </c>
+      <c r="D207" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207">
+        <v>66</v>
+      </c>
+      <c r="F207">
+        <v>81</v>
+      </c>
+      <c r="G207">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>35</v>
+      </c>
+      <c r="D208" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208">
+        <v>57</v>
+      </c>
+      <c r="F208">
+        <v>79</v>
+      </c>
+      <c r="G208">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>157</v>
+      </c>
+      <c r="C209">
+        <v>39</v>
+      </c>
+      <c r="D209" t="s">
+        <v>38</v>
+      </c>
+      <c r="E209">
+        <v>62</v>
+      </c>
+      <c r="F209">
+        <v>80</v>
+      </c>
+      <c r="G209">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210">
+        <v>45</v>
+      </c>
+      <c r="D210" t="s">
+        <v>47</v>
+      </c>
+      <c r="E210">
+        <v>67</v>
+      </c>
+      <c r="F210">
+        <v>71</v>
+      </c>
+      <c r="G210">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>37</v>
+      </c>
+      <c r="B211" t="s">
+        <v>44</v>
+      </c>
+      <c r="C211">
+        <v>24</v>
+      </c>
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211">
+        <v>59</v>
+      </c>
+      <c r="F211">
+        <v>68</v>
+      </c>
+      <c r="G211">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>63</v>
+      </c>
+      <c r="B212" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212">
+        <v>61</v>
+      </c>
+      <c r="D212" t="s">
+        <v>165</v>
+      </c>
+      <c r="E212">
+        <v>77</v>
+      </c>
+      <c r="F212">
+        <v>84</v>
+      </c>
+      <c r="G212">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>42</v>
+      </c>
+      <c r="B213" t="s">
+        <v>40</v>
+      </c>
+      <c r="C213">
+        <v>21</v>
+      </c>
+      <c r="D213" t="s">
+        <v>33</v>
+      </c>
+      <c r="E213">
+        <v>75</v>
+      </c>
+      <c r="F213">
+        <v>83</v>
+      </c>
+      <c r="G213">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>53</v>
+      </c>
+      <c r="B214" t="s">
+        <v>49</v>
+      </c>
+      <c r="C214">
+        <v>27</v>
+      </c>
+      <c r="D214" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214">
+        <v>74</v>
+      </c>
+      <c r="F214">
+        <v>69</v>
+      </c>
+      <c r="G214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>56</v>
+      </c>
+      <c r="B215" t="s">
+        <v>154</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215">
+        <v>94</v>
+      </c>
+      <c r="F215">
+        <v>90</v>
+      </c>
+      <c r="G215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>38</v>
+      </c>
+      <c r="B216" t="s">
+        <v>39</v>
+      </c>
+      <c r="C216">
+        <v>26</v>
+      </c>
+      <c r="D216" t="s">
+        <v>159</v>
+      </c>
+      <c r="E216">
+        <v>70</v>
+      </c>
+      <c r="F216">
+        <v>78</v>
+      </c>
+      <c r="G216">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>19</v>
+      </c>
+      <c r="B217" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217">
+        <v>58</v>
+      </c>
+      <c r="F217">
+        <v>71</v>
+      </c>
+      <c r="G217">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>46</v>
+      </c>
+      <c r="B218" t="s">
+        <v>48</v>
+      </c>
+      <c r="C218">
+        <v>39</v>
+      </c>
+      <c r="D218" t="s">
+        <v>38</v>
+      </c>
+      <c r="E218">
+        <v>61</v>
+      </c>
+      <c r="F218">
+        <v>70</v>
+      </c>
+      <c r="G218">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>45</v>
+      </c>
+      <c r="B219" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219">
+        <v>44</v>
+      </c>
+      <c r="D219" t="s">
+        <v>41</v>
+      </c>
+      <c r="E219">
+        <v>55</v>
+      </c>
+      <c r="F219">
+        <v>73</v>
+      </c>
+      <c r="G219">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220">
+        <v>20</v>
+      </c>
+      <c r="D220" t="s">
+        <v>36</v>
+      </c>
+      <c r="E220">
+        <v>73</v>
+      </c>
+      <c r="F220">
+        <v>57</v>
+      </c>
+      <c r="G220">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>26</v>
+      </c>
+      <c r="B221" t="s">
+        <v>159</v>
+      </c>
+      <c r="C221">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>53</v>
+      </c>
+      <c r="E221">
+        <v>70</v>
+      </c>
+      <c r="F221">
+        <v>72</v>
+      </c>
+      <c r="G221">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>8</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222">
+        <v>56</v>
+      </c>
+      <c r="D222" t="s">
+        <v>154</v>
+      </c>
+      <c r="E222">
+        <v>75</v>
+      </c>
+      <c r="F222">
+        <v>79</v>
+      </c>
+      <c r="G222">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
+        <v>23</v>
+      </c>
+      <c r="C223">
+        <v>55</v>
+      </c>
+      <c r="D223" t="s">
+        <v>151</v>
+      </c>
+      <c r="E223">
+        <v>94</v>
+      </c>
+      <c r="F223">
+        <v>89</v>
+      </c>
+      <c r="G223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>53</v>
+      </c>
+      <c r="B224" t="s">
+        <v>49</v>
+      </c>
+      <c r="C224">
+        <v>35</v>
+      </c>
+      <c r="D224" t="s">
+        <v>37</v>
+      </c>
+      <c r="E224">
+        <v>76</v>
+      </c>
+      <c r="F224">
+        <v>53</v>
+      </c>
+      <c r="G224">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>27</v>
+      </c>
+      <c r="B225" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225">
+        <v>22</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225">
+        <v>69</v>
+      </c>
+      <c r="F225">
+        <v>73</v>
+      </c>
+      <c r="G225">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>59</v>
+      </c>
+      <c r="B226" t="s">
+        <v>51</v>
+      </c>
+      <c r="C226">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>53</v>
+      </c>
+      <c r="E226">
+        <v>54</v>
+      </c>
+      <c r="F226">
+        <v>64</v>
+      </c>
+      <c r="G226">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227">
+        <v>25</v>
+      </c>
+      <c r="D227" t="s">
+        <v>30</v>
+      </c>
+      <c r="E227">
+        <v>72</v>
+      </c>
+      <c r="F227">
+        <v>70</v>
+      </c>
+      <c r="G227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228">
+        <v>23</v>
+      </c>
+      <c r="D228" t="s">
+        <v>26</v>
+      </c>
+      <c r="E228">
+        <v>60</v>
+      </c>
+      <c r="F228">
+        <v>72</v>
+      </c>
+      <c r="G228">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>46</v>
+      </c>
+      <c r="B229" t="s">
+        <v>48</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229">
+        <v>74</v>
+      </c>
+      <c r="F229">
+        <v>82</v>
+      </c>
+      <c r="G229">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>56</v>
+      </c>
+      <c r="B230" t="s">
+        <v>154</v>
+      </c>
+      <c r="C230">
+        <v>19</v>
+      </c>
+      <c r="D230" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230">
+        <v>70</v>
+      </c>
+      <c r="F230">
+        <v>81</v>
+      </c>
+      <c r="G230">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>45</v>
+      </c>
+      <c r="B231" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231">
+        <v>35</v>
+      </c>
+      <c r="D231" t="s">
+        <v>37</v>
+      </c>
+      <c r="E231">
+        <v>50</v>
+      </c>
+      <c r="F231">
+        <v>69</v>
+      </c>
+      <c r="G231">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>37</v>
+      </c>
+      <c r="B232" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232">
+        <v>69</v>
+      </c>
+      <c r="F232">
+        <v>65</v>
+      </c>
+      <c r="G232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>47</v>
+      </c>
+      <c r="B233" t="s">
+        <v>45</v>
+      </c>
+      <c r="C233">
+        <v>41</v>
+      </c>
+      <c r="D233" t="s">
+        <v>152</v>
+      </c>
+      <c r="E233">
+        <v>82</v>
+      </c>
+      <c r="F233">
+        <v>98</v>
+      </c>
+      <c r="G233">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>56</v>
+      </c>
+      <c r="B234" t="s">
+        <v>154</v>
+      </c>
+      <c r="C234">
+        <v>55</v>
+      </c>
+      <c r="D234" t="s">
+        <v>151</v>
+      </c>
+      <c r="E234">
+        <v>85</v>
+      </c>
+      <c r="F234">
+        <v>80</v>
+      </c>
+      <c r="G234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>42</v>
+      </c>
+      <c r="B235" t="s">
+        <v>40</v>
+      </c>
+      <c r="C235">
+        <v>9</v>
+      </c>
+      <c r="D235" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235">
+        <v>86</v>
+      </c>
+      <c r="F235">
+        <v>80</v>
+      </c>
+      <c r="G235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>53</v>
+      </c>
+      <c r="B236" t="s">
+        <v>49</v>
+      </c>
+      <c r="C236">
+        <v>20</v>
+      </c>
+      <c r="D236" t="s">
+        <v>36</v>
+      </c>
+      <c r="E236">
+        <v>73</v>
+      </c>
+      <c r="F236">
+        <v>68</v>
+      </c>
+      <c r="G236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>157</v>
+      </c>
+      <c r="C237">
+        <v>46</v>
+      </c>
+      <c r="D237" t="s">
+        <v>48</v>
+      </c>
+      <c r="E237">
+        <v>64</v>
+      </c>
+      <c r="F237">
+        <v>63</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>25</v>
+      </c>
+      <c r="B238" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238">
+        <v>57</v>
+      </c>
+      <c r="D238" t="s">
+        <v>58</v>
+      </c>
+      <c r="E238">
+        <v>54</v>
+      </c>
+      <c r="F238">
+        <v>65</v>
+      </c>
+      <c r="G238">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>27</v>
+      </c>
+      <c r="B239" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239">
+        <v>73</v>
+      </c>
+      <c r="F239">
+        <v>77</v>
+      </c>
+      <c r="G239">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>12</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240">
+        <v>60</v>
+      </c>
+      <c r="D240" t="s">
+        <v>164</v>
+      </c>
+      <c r="E240">
+        <v>65</v>
+      </c>
+      <c r="F240">
+        <v>75</v>
+      </c>
+      <c r="G240">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>24</v>
+      </c>
+      <c r="B241" t="s">
+        <v>29</v>
+      </c>
+      <c r="C241">
+        <v>19</v>
+      </c>
+      <c r="D241" t="s">
+        <v>23</v>
+      </c>
+      <c r="E241">
+        <v>73</v>
+      </c>
+      <c r="F241">
+        <v>88</v>
+      </c>
+      <c r="G241">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>35</v>
+      </c>
+      <c r="B242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C242">
+        <v>45</v>
+      </c>
+      <c r="D242" t="s">
+        <v>47</v>
+      </c>
+      <c r="E242">
+        <v>64</v>
+      </c>
+      <c r="F242">
+        <v>70</v>
+      </c>
+      <c r="G242">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243">
+        <v>64</v>
+      </c>
+      <c r="D243" t="s">
+        <v>54</v>
+      </c>
+      <c r="E243">
+        <v>80</v>
+      </c>
+      <c r="F243">
+        <v>67</v>
+      </c>
+      <c r="G243">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>40</v>
+      </c>
+      <c r="B244" t="s">
+        <v>46</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <v>78</v>
+      </c>
+      <c r="F244">
+        <v>88</v>
+      </c>
+      <c r="G244">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>45</v>
+      </c>
+      <c r="B245" t="s">
+        <v>47</v>
+      </c>
+      <c r="C245">
+        <v>44</v>
+      </c>
+      <c r="D245" t="s">
+        <v>41</v>
+      </c>
+      <c r="E245">
+        <v>57</v>
+      </c>
+      <c r="F245">
+        <v>68</v>
+      </c>
+      <c r="G245">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>56</v>
+      </c>
+      <c r="B246" t="s">
+        <v>154</v>
+      </c>
+      <c r="C246">
+        <v>55</v>
+      </c>
+      <c r="D246" t="s">
+        <v>151</v>
+      </c>
+      <c r="E246">
+        <v>72</v>
+      </c>
+      <c r="F246">
+        <v>69</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>63</v>
+      </c>
+      <c r="B247" t="s">
+        <v>53</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247">
+        <v>69</v>
+      </c>
+      <c r="F247">
+        <v>72</v>
+      </c>
+      <c r="G247">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>47</v>
+      </c>
+      <c r="B248" t="s">
+        <v>45</v>
+      </c>
+      <c r="C248">
+        <v>23</v>
+      </c>
+      <c r="D248" t="s">
+        <v>26</v>
+      </c>
+      <c r="E248">
+        <v>72</v>
+      </c>
+      <c r="F248">
+        <v>71</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>64</v>
+      </c>
+      <c r="B249" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249">
+        <v>46</v>
+      </c>
+      <c r="D249" t="s">
+        <v>48</v>
+      </c>
+      <c r="E249">
+        <v>83</v>
+      </c>
+      <c r="F249">
+        <v>79</v>
+      </c>
+      <c r="G249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>8</v>
+      </c>
+      <c r="B250" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250">
+        <v>62</v>
+      </c>
+      <c r="F250">
+        <v>69</v>
+      </c>
+      <c r="G250">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>26</v>
+      </c>
+      <c r="B251" t="s">
+        <v>159</v>
+      </c>
+      <c r="C251">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>155</v>
+      </c>
+      <c r="E251">
+        <v>81</v>
+      </c>
+      <c r="F251">
+        <v>73</v>
+      </c>
+      <c r="G251">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>24</v>
+      </c>
+      <c r="B252" t="s">
+        <v>29</v>
+      </c>
+      <c r="C252">
+        <v>37</v>
+      </c>
+      <c r="D252" t="s">
+        <v>44</v>
+      </c>
+      <c r="E252">
+        <v>66</v>
+      </c>
+      <c r="F252">
+        <v>67</v>
+      </c>
+      <c r="G252">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>44</v>
+      </c>
+      <c r="B253" t="s">
+        <v>41</v>
+      </c>
+      <c r="C253">
+        <v>35</v>
+      </c>
+      <c r="D253" t="s">
+        <v>37</v>
+      </c>
+      <c r="E253">
+        <v>66</v>
+      </c>
+      <c r="F253">
+        <v>79</v>
+      </c>
+      <c r="G253">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>20</v>
+      </c>
+      <c r="B254" t="s">
+        <v>36</v>
+      </c>
+      <c r="C254">
+        <v>22</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254">
+        <v>87</v>
+      </c>
+      <c r="F254">
+        <v>78</v>
+      </c>
+      <c r="G254">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>25</v>
+      </c>
+      <c r="B255" t="s">
+        <v>30</v>
+      </c>
+      <c r="C255">
+        <v>57</v>
+      </c>
+      <c r="D255" t="s">
+        <v>58</v>
+      </c>
+      <c r="E255">
+        <v>66</v>
+      </c>
+      <c r="F255">
+        <v>78</v>
+      </c>
+      <c r="G255">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>62</v>
+      </c>
+      <c r="B256" t="s">
+        <v>52</v>
+      </c>
+      <c r="C256">
+        <v>53</v>
+      </c>
+      <c r="D256" t="s">
+        <v>49</v>
+      </c>
+      <c r="E256">
+        <v>68</v>
+      </c>
+      <c r="F256">
+        <v>90</v>
+      </c>
+      <c r="G256">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>56</v>
+      </c>
+      <c r="B257" t="s">
+        <v>154</v>
+      </c>
+      <c r="C257">
+        <v>19</v>
+      </c>
+      <c r="D257" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257">
+        <v>83</v>
+      </c>
+      <c r="F257">
+        <v>74</v>
+      </c>
+      <c r="G257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>9</v>
+      </c>
+      <c r="B258" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258">
+        <v>21</v>
+      </c>
+      <c r="D258" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258">
+        <v>64</v>
+      </c>
+      <c r="F258">
+        <v>70</v>
+      </c>
+      <c r="G258">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>64</v>
+      </c>
+      <c r="B259" t="s">
+        <v>54</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>14</v>
+      </c>
+      <c r="E259">
+        <v>75</v>
+      </c>
+      <c r="F259">
+        <v>64</v>
+      </c>
+      <c r="G259">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>26</v>
+      </c>
+      <c r="B260" t="s">
+        <v>159</v>
+      </c>
+      <c r="C260">
+        <v>38</v>
+      </c>
+      <c r="D260" t="s">
+        <v>39</v>
+      </c>
+      <c r="E260">
+        <v>66</v>
+      </c>
+      <c r="F260">
+        <v>69</v>
+      </c>
+      <c r="G260">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>27</v>
+      </c>
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261">
+        <v>57</v>
+      </c>
+      <c r="F261">
+        <v>62</v>
+      </c>
+      <c r="G261">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>41</v>
+      </c>
+      <c r="B262" t="s">
+        <v>152</v>
+      </c>
+      <c r="C262">
+        <v>5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262">
+        <v>56</v>
+      </c>
+      <c r="F262">
+        <v>59</v>
+      </c>
+      <c r="G262">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>39</v>
+      </c>
+      <c r="B263" t="s">
+        <v>38</v>
+      </c>
+      <c r="C263">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>157</v>
+      </c>
+      <c r="E263">
+        <v>72</v>
+      </c>
+      <c r="F263">
+        <v>70</v>
+      </c>
+      <c r="G263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>10</v>
+      </c>
+      <c r="B264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264">
+        <v>43</v>
+      </c>
+      <c r="D264" t="s">
+        <v>166</v>
+      </c>
+      <c r="E264">
+        <v>65</v>
+      </c>
+      <c r="F264">
+        <v>74</v>
+      </c>
+      <c r="G264">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>42</v>
+      </c>
+      <c r="B265" t="s">
+        <v>40</v>
+      </c>
+      <c r="C265">
+        <v>36</v>
+      </c>
+      <c r="D265" t="s">
+        <v>43</v>
+      </c>
+      <c r="E265">
+        <v>79</v>
+      </c>
+      <c r="F265">
+        <v>80</v>
+      </c>
+      <c r="G265">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>20</v>
+      </c>
+      <c r="B266" t="s">
+        <v>36</v>
+      </c>
+      <c r="C266">
+        <v>53</v>
+      </c>
+      <c r="D266" t="s">
+        <v>49</v>
+      </c>
+      <c r="E266">
+        <v>88</v>
+      </c>
+      <c r="F266">
+        <v>91</v>
+      </c>
+      <c r="G266">
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4FA2D8-D9F1-E142-A72C-DC00F72930D8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11255,7 +17505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B028866C-56D3-0F4B-A724-FF88FABD1313}">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -11606,7 +17856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411A7206-4843-494E-A869-36713244513D}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -11805,7 +18055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96198FA0-4D79-A544-A80C-495386FB2753}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -11921,7 +18171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBF7375-38E9-864A-AF6C-31CB82AF7814}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -11990,56 +18240,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D843C2-1F12-C544-9CAC-DF8D94BC5955}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="6" width="15.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2">
-        <f>FinalFour!E2</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>FinalFour!E3</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/March_Madness2021.xlsx
+++ b/March_Madness2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simbo/Desktop/MinneAnalytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BB5C05-82EC-1E4F-B6A1-6411706E14A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{696BBDB9-9402-9543-935C-8F2DACD95B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6680" windowWidth="38400" windowHeight="21600" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
+    <workbookView xWindow="-36740" yWindow="-6660" windowWidth="23880" windowHeight="21600" activeTab="4" xr2:uid="{2273F496-9B2C-F548-9455-F823A2D655AE}"/>
   </bookViews>
   <sheets>
     <sheet name="TeamIndex" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="171">
   <si>
     <t>Seed</t>
   </si>
@@ -423,9 +423,6 @@
     <t>FG%.For</t>
   </si>
   <si>
-    <t>FG%.Agaisnt</t>
-  </si>
-  <si>
     <t>ThreesMade</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   <si>
     <t>Score2</t>
   </si>
+  <si>
+    <t>FG%.Against</t>
+  </si>
 </sst>
 </file>
 
@@ -581,18 +581,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -607,14 +601,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -930,566 +923,776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F220B1-F692-9F45-B093-D2157E7377AC}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1553,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986C8978-FB06-1D45-95CB-A5CB586D8396}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1628,31 +1831,31 @@
         <v>124</v>
       </c>
       <c r="P1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q1" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>126</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>127</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>128</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>129</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>130</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" t="s">
         <v>131</v>
-      </c>
-      <c r="W1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1674,13 +1877,13 @@
       <c r="F2">
         <v>26</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>26</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
       <c r="J2">
@@ -1748,13 +1951,13 @@
       <c r="F3">
         <v>29</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>21</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>8</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.72409999999999997</v>
       </c>
       <c r="J3">
@@ -1822,13 +2025,13 @@
       <c r="F4">
         <v>28</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>20</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>8</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.71430000000000005</v>
       </c>
       <c r="J4">
@@ -1896,13 +2099,13 @@
       <c r="F5">
         <v>24</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>18</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>6</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.75</v>
       </c>
       <c r="J5">
@@ -1970,13 +2173,13 @@
       <c r="F6">
         <v>28</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>20</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>8</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.71430000000000005</v>
       </c>
       <c r="J6">
@@ -2044,13 +2247,13 @@
       <c r="F7">
         <v>29</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>22</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>7</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.75860000000000005</v>
       </c>
       <c r="J7">
@@ -2118,13 +2321,13 @@
       <c r="F8">
         <v>26</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>20</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>6</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.76919999999999999</v>
       </c>
       <c r="J8">
@@ -2192,13 +2395,13 @@
       <c r="F9">
         <v>25</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>15</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>10</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.6</v>
       </c>
       <c r="J9">
@@ -2266,13 +2469,13 @@
       <c r="F10">
         <v>25</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>16</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>9</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.64</v>
       </c>
       <c r="J10">
@@ -2340,13 +2543,13 @@
       <c r="F11">
         <v>26</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>19</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>7</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.73080000000000001</v>
       </c>
       <c r="J11">
@@ -2414,13 +2617,13 @@
       <c r="F12">
         <v>21</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>16</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>5</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.76190000000000002</v>
       </c>
       <c r="J12">
@@ -2488,13 +2691,13 @@
       <c r="F13">
         <v>29</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>25</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>4</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.86209999999999998</v>
       </c>
       <c r="J13">
@@ -2562,13 +2765,13 @@
       <c r="F14">
         <v>26</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>22</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.84619999999999995</v>
       </c>
       <c r="J14">
@@ -2636,13 +2839,13 @@
       <c r="F15">
         <v>23</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>16</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>7</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>0.69569999999999999</v>
       </c>
       <c r="J15">
@@ -2710,13 +2913,13 @@
       <c r="F16">
         <v>23</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>16</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>7</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>0.69569999999999999</v>
       </c>
       <c r="J16">
@@ -2784,13 +2987,13 @@
       <c r="F17">
         <v>23</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>17</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>6</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>0.73909999999999998</v>
       </c>
       <c r="J17">
@@ -2858,13 +3061,13 @@
       <c r="F18">
         <v>23</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>16</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>7</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>0.69569999999999999</v>
       </c>
       <c r="J18">
@@ -2932,13 +3135,13 @@
       <c r="F19">
         <v>28</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>17</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>11</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>0.60709999999999997</v>
       </c>
       <c r="J19">
@@ -3006,13 +3209,13 @@
       <c r="F20">
         <v>24</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>22</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>2</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>0.91669999999999996</v>
       </c>
       <c r="J20">
@@ -3080,13 +3283,13 @@
       <c r="F21">
         <v>30</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>21</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>9</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>0.7</v>
       </c>
       <c r="J21">
@@ -3154,13 +3357,13 @@
       <c r="F22">
         <v>28</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>22</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>6</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>0.78569999999999995</v>
       </c>
       <c r="J22">
@@ -3228,13 +3431,13 @@
       <c r="F23">
         <v>27</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>18</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>9</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>0.66669999999999996</v>
       </c>
       <c r="J23">
@@ -3302,13 +3505,13 @@
       <c r="F24">
         <v>22</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>16</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>6</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>0.72729999999999995</v>
       </c>
       <c r="J24">
@@ -3376,13 +3579,13 @@
       <c r="F25">
         <v>27</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>17</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>10</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>0.62960000000000005</v>
       </c>
       <c r="J25">
@@ -3450,13 +3653,13 @@
       <c r="F26">
         <v>23</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>14</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>9</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>0.60870000000000002</v>
       </c>
       <c r="J26">
@@ -3524,13 +3727,13 @@
       <c r="F27">
         <v>28</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>18</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>10</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>0.64290000000000003</v>
       </c>
       <c r="J27">
@@ -3598,13 +3801,13 @@
       <c r="F28">
         <v>29</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>17</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>12</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <v>0.58620000000000005</v>
       </c>
       <c r="J28">
@@ -3672,13 +3875,13 @@
       <c r="F29">
         <v>21</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>15</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>6</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>0.71430000000000005</v>
       </c>
       <c r="J29">
@@ -3746,13 +3949,13 @@
       <c r="F30">
         <v>28</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>20</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>8</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>0.71430000000000005</v>
       </c>
       <c r="J30">
@@ -3820,13 +4023,13 @@
       <c r="F31">
         <v>24</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>23</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>1</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>0.95830000000000004</v>
       </c>
       <c r="J31">
@@ -3894,13 +4097,13 @@
       <c r="F32">
         <v>26</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>17</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>9</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>0.65380000000000005</v>
       </c>
       <c r="J32">
@@ -3968,13 +4171,13 @@
       <c r="F33">
         <v>15</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>14</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>0.93330000000000002</v>
       </c>
       <c r="J33">
@@ -4042,13 +4245,13 @@
       <c r="F34">
         <v>26</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>16</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>10</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>0.61539999999999995</v>
       </c>
       <c r="J34">
@@ -4116,13 +4319,13 @@
       <c r="F35">
         <v>23</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>15</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>8</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>0.6522</v>
       </c>
       <c r="J35">
@@ -4190,13 +4393,13 @@
       <c r="F36">
         <v>24</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>20</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>4</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>0.83330000000000004</v>
       </c>
       <c r="J36">
@@ -4264,13 +4467,13 @@
       <c r="F37">
         <v>30</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>24</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>6</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>0.8</v>
       </c>
       <c r="J37">
@@ -4338,13 +4541,13 @@
       <c r="F38">
         <v>26</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>19</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>7</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <v>0.73080000000000001</v>
       </c>
       <c r="J38">
@@ -4412,13 +4615,13 @@
       <c r="F39">
         <v>22</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>16</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>6</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <v>0.72729999999999995</v>
       </c>
       <c r="J39">
@@ -4486,13 +4689,13 @@
       <c r="F40">
         <v>30</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>22</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>8</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="4">
         <v>0.73329999999999995</v>
       </c>
       <c r="J40">
@@ -4560,13 +4763,13 @@
       <c r="F41">
         <v>26</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>20</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>6</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="4">
         <v>0.76919999999999999</v>
       </c>
       <c r="J41">
@@ -4634,13 +4837,13 @@
       <c r="F42">
         <v>22</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>15</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>7</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>0.68179999999999996</v>
       </c>
       <c r="J42">
@@ -4708,13 +4911,13 @@
       <c r="F43">
         <v>27</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>18</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>9</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>0.66669999999999996</v>
       </c>
       <c r="J43">
@@ -4782,13 +4985,13 @@
       <c r="F44">
         <v>20</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>16</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>4</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <v>0.8</v>
       </c>
       <c r="J44">
@@ -4856,13 +5059,13 @@
       <c r="F45">
         <v>29</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>16</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>13</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <v>0.55169999999999997</v>
       </c>
       <c r="J45">
@@ -4930,13 +5133,13 @@
       <c r="F46">
         <v>27</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>15</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <v>12</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="4">
         <v>0.55559999999999998</v>
       </c>
       <c r="J46">
@@ -5004,13 +5207,13 @@
       <c r="F47">
         <v>26</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>17</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <v>9</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="4">
         <v>0.65380000000000005</v>
       </c>
       <c r="J47">
@@ -5078,13 +5281,13 @@
       <c r="F48">
         <v>25</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>13</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <v>12</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <v>0.52</v>
       </c>
       <c r="J48">
@@ -5152,13 +5355,13 @@
       <c r="F49">
         <v>29</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>21</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>8</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>0.72409999999999997</v>
       </c>
       <c r="J49">
@@ -5226,13 +5429,13 @@
       <c r="F50">
         <v>27</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>23</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="4">
         <v>4</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="4">
         <v>0.85189999999999999</v>
       </c>
       <c r="J50">
@@ -5300,13 +5503,13 @@
       <c r="F51">
         <v>17</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>12</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="4">
         <v>5</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="4">
         <v>0.70589999999999997</v>
       </c>
       <c r="J51">
@@ -5374,13 +5577,13 @@
       <c r="F52">
         <v>22</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <v>12</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <v>10</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="4">
         <v>0.54549999999999998</v>
       </c>
       <c r="J52">
@@ -5448,13 +5651,13 @@
       <c r="F53">
         <v>24</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <v>16</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <v>8</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <v>0.66669999999999996</v>
       </c>
       <c r="J53">
@@ -5522,13 +5725,13 @@
       <c r="F54">
         <v>29</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>23</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <v>6</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="4">
         <v>0.79310000000000003</v>
       </c>
       <c r="J54">
@@ -5596,13 +5799,13 @@
       <c r="F55">
         <v>27</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>24</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <v>3</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="4">
         <v>0.88890000000000002</v>
       </c>
       <c r="J55">
@@ -5670,13 +5873,13 @@
       <c r="F56">
         <v>27</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>18</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>9</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="4">
         <v>0.66669999999999996</v>
       </c>
       <c r="J56">
@@ -5744,13 +5947,13 @@
       <c r="F57">
         <v>28</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>20</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>8</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="4">
         <v>0.71430000000000005</v>
       </c>
       <c r="J57">
@@ -5818,13 +6021,13 @@
       <c r="F58">
         <v>26</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <v>18</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="4">
         <v>8</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="4">
         <v>0.69230000000000003</v>
       </c>
       <c r="J58">
@@ -5892,13 +6095,13 @@
       <c r="F59">
         <v>27</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <v>23</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="4">
         <v>4</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="4">
         <v>0.85189999999999999</v>
       </c>
       <c r="J59">
@@ -5966,13 +6169,13 @@
       <c r="F60">
         <v>23</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="4">
         <v>16</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="4">
         <v>7</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="4">
         <v>0.69569999999999999</v>
       </c>
       <c r="J60">
@@ -6040,13 +6243,13 @@
       <c r="F61">
         <v>28</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <v>24</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="4">
         <v>4</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="4">
         <v>0.85709999999999997</v>
       </c>
       <c r="J61">
@@ -6114,13 +6317,13 @@
       <c r="F62">
         <v>25</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <v>17</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="4">
         <v>8</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="4">
         <v>0.68</v>
       </c>
       <c r="J62">
@@ -6188,13 +6391,13 @@
       <c r="F63">
         <v>26</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="4">
         <v>15</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="4">
         <v>11</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="4">
         <v>0.57689999999999997</v>
       </c>
       <c r="J63">
@@ -6262,13 +6465,13 @@
       <c r="F64">
         <v>25</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <v>16</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <v>9</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="4">
         <v>0.64</v>
       </c>
       <c r="J64">
@@ -6336,13 +6539,13 @@
       <c r="F65">
         <v>29</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <v>17</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>12</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="4">
         <v>0.58620000000000005</v>
       </c>
       <c r="J65">
@@ -6410,13 +6613,13 @@
       <c r="F66">
         <v>28</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <v>23</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="4">
         <v>5</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="4">
         <v>0.82140000000000002</v>
       </c>
       <c r="J66">
@@ -6484,13 +6687,13 @@
       <c r="F67">
         <v>30</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <v>23</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <v>7</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="4">
         <v>0.76670000000000005</v>
       </c>
       <c r="J67">
@@ -6558,13 +6761,13 @@
       <c r="F68">
         <v>26</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="4">
         <v>19</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <v>7</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="4">
         <v>0.73080000000000001</v>
       </c>
       <c r="J68">
@@ -6632,13 +6835,13 @@
       <c r="F69">
         <v>19</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>12</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <v>7</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="4">
         <v>0.63160000000000005</v>
       </c>
       <c r="J69">
@@ -6699,7 +6902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF90A3C-E19C-4B45-846A-E34ED9C1430B}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6714,55 +6919,55 @@
         <v>115</v>
       </c>
       <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
-      </c>
-      <c r="I1" t="s">
-        <v>140</v>
       </c>
       <c r="J1" t="s">
         <v>114</v>
       </c>
       <c r="K1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
         <v>141</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>142</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>143</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>145</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>147</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>148</v>
-      </c>
-      <c r="S1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -10803,19 +11008,19 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>170</v>
       </c>
       <c r="G1" t="s">
         <v>119</v>
@@ -10901,7 +11106,7 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5">
         <v>58</v>
@@ -10947,7 +11152,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>66</v>
@@ -11016,7 +11221,7 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -11056,13 +11261,13 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12">
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12">
         <v>65</v>
@@ -11079,7 +11284,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>23</v>
@@ -11102,7 +11307,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>44</v>
@@ -11148,7 +11353,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -11200,7 +11405,7 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18">
         <v>75</v>
@@ -11223,7 +11428,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19">
         <v>69</v>
@@ -11263,7 +11468,7 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -11355,13 +11560,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25">
         <v>58</v>
@@ -11378,7 +11583,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -11470,7 +11675,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -11493,7 +11698,7 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31">
         <v>47</v>
@@ -11516,7 +11721,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -11585,7 +11790,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -11614,7 +11819,7 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36">
         <v>78</v>
@@ -11677,7 +11882,7 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39">
         <v>24</v>
@@ -11729,7 +11934,7 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41">
         <v>50</v>
@@ -11792,7 +11997,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -11867,7 +12072,7 @@
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E47">
         <v>47</v>
@@ -11884,7 +12089,7 @@
         <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -11936,7 +12141,7 @@
         <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E50">
         <v>60</v>
@@ -11953,7 +12158,7 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>57</v>
@@ -11976,7 +12181,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52">
         <v>27</v>
@@ -11999,7 +12204,7 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53">
         <v>38</v>
@@ -12097,7 +12302,7 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E57">
         <v>72</v>
@@ -12166,7 +12371,7 @@
         <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60">
         <v>76</v>
@@ -12206,7 +12411,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62">
         <v>37</v>
@@ -12275,7 +12480,7 @@
         <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65">
         <v>40</v>
@@ -12298,7 +12503,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66">
         <v>21</v>
@@ -12344,7 +12549,7 @@
         <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -12574,13 +12779,13 @@
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C78">
         <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E78">
         <v>67</v>
@@ -12649,7 +12854,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81">
         <v>72</v>
@@ -12758,7 +12963,7 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86">
         <v>24</v>
@@ -12781,7 +12986,7 @@
         <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -12856,7 +13061,7 @@
         <v>60</v>
       </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E90">
         <v>49</v>
@@ -12896,13 +13101,13 @@
         <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C92">
         <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E92">
         <v>87</v>
@@ -13155,7 +13360,7 @@
         <v>55</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E103">
         <v>72</v>
@@ -13270,7 +13475,7 @@
         <v>56</v>
       </c>
       <c r="D108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -13293,7 +13498,7 @@
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109">
         <v>75</v>
@@ -13356,7 +13561,7 @@
         <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C112">
         <v>29</v>
@@ -13402,7 +13607,7 @@
         <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114">
         <v>38</v>
@@ -13448,7 +13653,7 @@
         <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C116">
         <v>29</v>
@@ -13609,7 +13814,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123">
         <v>64</v>
@@ -13684,7 +13889,7 @@
         <v>43</v>
       </c>
       <c r="D126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E126">
         <v>54</v>
@@ -13707,7 +13912,7 @@
         <v>61</v>
       </c>
       <c r="D127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E127">
         <v>65</v>
@@ -13747,7 +13952,7 @@
         <v>41</v>
       </c>
       <c r="B129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -13770,7 +13975,7 @@
         <v>28</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C130">
         <v>63</v>
@@ -13822,7 +14027,7 @@
         <v>56</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E132">
         <v>81</v>
@@ -13885,7 +14090,7 @@
         <v>61</v>
       </c>
       <c r="B135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -13983,7 +14188,7 @@
         <v>55</v>
       </c>
       <c r="D139" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E139">
         <v>87</v>
@@ -14052,7 +14257,7 @@
         <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E142">
         <v>62</v>
@@ -14144,7 +14349,7 @@
         <v>55</v>
       </c>
       <c r="D146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E146">
         <v>85</v>
@@ -14190,7 +14395,7 @@
         <v>61</v>
       </c>
       <c r="D148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E148">
         <v>65</v>
@@ -14213,7 +14418,7 @@
         <v>56</v>
       </c>
       <c r="D149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E149">
         <v>77</v>
@@ -14236,7 +14441,7 @@
         <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E150">
         <v>51</v>
@@ -14414,7 +14619,7 @@
         <v>26</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158">
         <v>59</v>
@@ -14535,7 +14740,7 @@
         <v>55</v>
       </c>
       <c r="D163" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E163">
         <v>79</v>
@@ -14604,7 +14809,7 @@
         <v>56</v>
       </c>
       <c r="D166" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E166">
         <v>67</v>
@@ -14627,7 +14832,7 @@
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E167">
         <v>48</v>
@@ -14713,7 +14918,7 @@
         <v>56</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C171">
         <v>3</v>
@@ -14759,7 +14964,7 @@
         <v>55</v>
       </c>
       <c r="B173" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C173">
         <v>24</v>
@@ -14811,7 +15016,7 @@
         <v>61</v>
       </c>
       <c r="D175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E175">
         <v>57</v>
@@ -14851,7 +15056,7 @@
         <v>43</v>
       </c>
       <c r="B177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C177">
         <v>10</v>
@@ -14874,7 +15079,7 @@
         <v>61</v>
       </c>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C178">
         <v>59</v>
@@ -14897,7 +15102,7 @@
         <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179">
         <v>12</v>
@@ -14926,7 +15131,7 @@
         <v>55</v>
       </c>
       <c r="D180" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E180">
         <v>91</v>
@@ -15035,7 +15240,7 @@
         <v>26</v>
       </c>
       <c r="B185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C185">
         <v>4</v>
@@ -15081,7 +15286,7 @@
         <v>60</v>
       </c>
       <c r="B187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C187">
         <v>12</v>
@@ -15265,7 +15470,7 @@
         <v>41</v>
       </c>
       <c r="B195" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C195">
         <v>23</v>
@@ -15311,7 +15516,7 @@
         <v>55</v>
       </c>
       <c r="B197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C197">
         <v>37</v>
@@ -15409,7 +15614,7 @@
         <v>56</v>
       </c>
       <c r="D201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E201">
         <v>69</v>
@@ -15432,7 +15637,7 @@
         <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E202">
         <v>58</v>
@@ -15472,13 +15677,13 @@
         <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C204">
         <v>28</v>
       </c>
       <c r="D204" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E204">
         <v>69</v>
@@ -15495,7 +15700,7 @@
         <v>41</v>
       </c>
       <c r="B205" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C205">
         <v>47</v>
@@ -15587,7 +15792,7 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C209">
         <v>39</v>
@@ -15662,7 +15867,7 @@
         <v>61</v>
       </c>
       <c r="D212" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E212">
         <v>77</v>
@@ -15725,7 +15930,7 @@
         <v>56</v>
       </c>
       <c r="B215" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C215">
         <v>8</v>
@@ -15754,7 +15959,7 @@
         <v>26</v>
       </c>
       <c r="D216" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E216">
         <v>70</v>
@@ -15863,7 +16068,7 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C221">
         <v>63</v>
@@ -15892,7 +16097,7 @@
         <v>56</v>
       </c>
       <c r="D222" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E222">
         <v>75</v>
@@ -15915,7 +16120,7 @@
         <v>55</v>
       </c>
       <c r="D223" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E223">
         <v>94</v>
@@ -16070,7 +16275,7 @@
         <v>56</v>
       </c>
       <c r="B230" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C230">
         <v>19</v>
@@ -16145,7 +16350,7 @@
         <v>41</v>
       </c>
       <c r="D233" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E233">
         <v>82</v>
@@ -16162,13 +16367,13 @@
         <v>56</v>
       </c>
       <c r="B234" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C234">
         <v>55</v>
       </c>
       <c r="D234" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E234">
         <v>85</v>
@@ -16231,7 +16436,7 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C237">
         <v>46</v>
@@ -16306,7 +16511,7 @@
         <v>60</v>
       </c>
       <c r="D240" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E240">
         <v>65</v>
@@ -16438,13 +16643,13 @@
         <v>56</v>
       </c>
       <c r="B246" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C246">
         <v>55</v>
       </c>
       <c r="D246" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E246">
         <v>72</v>
@@ -16553,13 +16758,13 @@
         <v>26</v>
       </c>
       <c r="B251" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C251">
         <v>28</v>
       </c>
       <c r="D251" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E251">
         <v>81</v>
@@ -16691,7 +16896,7 @@
         <v>56</v>
       </c>
       <c r="B257" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C257">
         <v>19</v>
@@ -16760,7 +16965,7 @@
         <v>26</v>
       </c>
       <c r="B260" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C260">
         <v>38</v>
@@ -16806,7 +17011,7 @@
         <v>41</v>
       </c>
       <c r="B262" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C262">
         <v>5</v>
@@ -16835,7 +17040,7 @@
         <v>6</v>
       </c>
       <c r="D263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E263">
         <v>72</v>
@@ -16858,7 +17063,7 @@
         <v>43</v>
       </c>
       <c r="D264" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E264">
         <v>65</v>
@@ -16925,9 +17130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4FA2D8-D9F1-E142-A72C-DC00F72930D8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16963,7 +17166,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>17</v>
       </c>
       <c r="D2" t="s">
@@ -17048,7 +17251,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>12</v>
       </c>
       <c r="D7" t="s">
@@ -17235,8 +17438,8 @@
       <c r="B18">
         <v>35</v>
       </c>
-      <c r="C18" s="4">
-        <v>51</v>
+      <c r="C18" s="3">
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -17320,8 +17523,8 @@
       <c r="B23">
         <v>40</v>
       </c>
-      <c r="C23" s="4">
-        <v>45</v>
+      <c r="C23" s="3">
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
